--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8829606666666666</v>
+        <v>3.105995666666667</v>
       </c>
       <c r="H2">
-        <v>2.648882</v>
+        <v>9.317987</v>
       </c>
       <c r="I2">
-        <v>0.001394130482628961</v>
+        <v>0.004885742881589447</v>
       </c>
       <c r="J2">
-        <v>0.001395203755376151</v>
+        <v>0.004889678800686542</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N2">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O2">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P2">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q2">
-        <v>2.363615656453777</v>
+        <v>8.929068717266444</v>
       </c>
       <c r="R2">
-        <v>21.272540908084</v>
+        <v>80.361618455398</v>
       </c>
       <c r="S2">
-        <v>0.0001585700633323003</v>
+        <v>0.0005799912534615611</v>
       </c>
       <c r="T2">
-        <v>0.0001629034784007846</v>
+        <v>0.0005925543939353719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8829606666666666</v>
+        <v>3.105995666666667</v>
       </c>
       <c r="H3">
-        <v>2.648882</v>
+        <v>9.317987</v>
       </c>
       <c r="I3">
-        <v>0.001394130482628961</v>
+        <v>0.004885742881589447</v>
       </c>
       <c r="J3">
-        <v>0.001395203755376151</v>
+        <v>0.004889678800686542</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P3">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q3">
-        <v>9.498952659246665</v>
+        <v>33.41451880169667</v>
       </c>
       <c r="R3">
-        <v>85.49057393321999</v>
+        <v>300.73066921527</v>
       </c>
       <c r="S3">
-        <v>0.000637264997231889</v>
+        <v>0.002170453521780489</v>
       </c>
       <c r="T3">
-        <v>0.0006546802248201835</v>
+        <v>0.002217467528152591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8829606666666666</v>
+        <v>3.105995666666667</v>
       </c>
       <c r="H4">
-        <v>2.648882</v>
+        <v>9.317987</v>
       </c>
       <c r="I4">
-        <v>0.001394130482628961</v>
+        <v>0.004885742881589447</v>
       </c>
       <c r="J4">
-        <v>0.001395203755376151</v>
+        <v>0.004889678800686542</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N4">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O4">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P4">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q4">
-        <v>3.147521086410222</v>
+        <v>15.987932546418</v>
       </c>
       <c r="R4">
-        <v>28.327689777692</v>
+        <v>143.891392917762</v>
       </c>
       <c r="S4">
-        <v>0.0002111606498497485</v>
+        <v>0.001038502595452604</v>
       </c>
       <c r="T4">
-        <v>0.0002169312645717232</v>
+        <v>0.001060997510524549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8829606666666666</v>
+        <v>3.105995666666667</v>
       </c>
       <c r="H5">
-        <v>2.648882</v>
+        <v>9.317987</v>
       </c>
       <c r="I5">
-        <v>0.001394130482628961</v>
+        <v>0.004885742881589447</v>
       </c>
       <c r="J5">
-        <v>0.001395203755376151</v>
+        <v>0.004889678800686542</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N5">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O5">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P5">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q5">
-        <v>1.611648238251666</v>
+        <v>4.606241269597334</v>
       </c>
       <c r="R5">
-        <v>9.669889429509999</v>
+        <v>27.63744761758401</v>
       </c>
       <c r="S5">
-        <v>0.0001081221316634795</v>
+        <v>0.0002992002561850605</v>
       </c>
       <c r="T5">
-        <v>7.40512678116194E-05</v>
+        <v>0.0002037874714039938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8829606666666666</v>
+        <v>3.105995666666667</v>
       </c>
       <c r="H6">
-        <v>2.648882</v>
+        <v>9.317987</v>
       </c>
       <c r="I6">
-        <v>0.001394130482628961</v>
+        <v>0.004885742881589447</v>
       </c>
       <c r="J6">
-        <v>0.001395203755376151</v>
+        <v>0.004889678800686542</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N6">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O6">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P6">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q6">
-        <v>4.158910147964888</v>
+        <v>12.27912109943711</v>
       </c>
       <c r="R6">
-        <v>37.430191331684</v>
+        <v>110.512089894934</v>
       </c>
       <c r="S6">
-        <v>0.0002790126405515437</v>
+        <v>0.0007975952547097323</v>
       </c>
       <c r="T6">
-        <v>0.0002866375197718408</v>
+        <v>0.0008148718966700361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>1888.753784</v>
       </c>
       <c r="I7">
-        <v>0.9940681481678673</v>
+        <v>0.9903389385768765</v>
       </c>
       <c r="J7">
-        <v>0.9948334325265211</v>
+        <v>0.9911367484566449</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N7">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O7">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P7">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q7">
-        <v>1685.348012878156</v>
+        <v>1809.920139117282</v>
       </c>
       <c r="R7">
-        <v>15168.13211590341</v>
+        <v>16289.28125205554</v>
       </c>
       <c r="S7">
-        <v>0.1130664964116944</v>
+        <v>0.1175640913281406</v>
       </c>
       <c r="T7">
-        <v>0.1161563864514328</v>
+        <v>0.1201106369617451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1888.753784</v>
       </c>
       <c r="I8">
-        <v>0.9940681481678673</v>
+        <v>0.9903389385768765</v>
       </c>
       <c r="J8">
-        <v>0.9948334325265211</v>
+        <v>0.9911367484566449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.27421</v>
       </c>
       <c r="O8">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P8">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q8">
         <v>6773.115140345626</v>
@@ -948,10 +948,10 @@
         <v>60958.03626311063</v>
       </c>
       <c r="S8">
-        <v>0.454394221763174</v>
+        <v>0.4399504208644018</v>
       </c>
       <c r="T8">
-        <v>0.4668119425248434</v>
+        <v>0.449480148952272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1888.753784</v>
       </c>
       <c r="I9">
-        <v>0.9940681481678673</v>
+        <v>0.9903389385768765</v>
       </c>
       <c r="J9">
-        <v>0.9948334325265211</v>
+        <v>0.9911367484566449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N9">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O9">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P9">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q9">
-        <v>2244.302449930612</v>
+        <v>3240.750185140176</v>
       </c>
       <c r="R9">
-        <v>20198.7220493755</v>
+        <v>29166.75166626158</v>
       </c>
       <c r="S9">
-        <v>0.1505655882125408</v>
+        <v>0.2105042330339083</v>
       </c>
       <c r="T9">
-        <v>0.1546802563601351</v>
+        <v>0.2150639470539958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1888.753784</v>
       </c>
       <c r="I10">
-        <v>0.9940681481678673</v>
+        <v>0.9903389385768765</v>
       </c>
       <c r="J10">
-        <v>0.9948334325265211</v>
+        <v>0.9911367484566449</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N10">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O10">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P10">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q10">
-        <v>1149.166594991687</v>
+        <v>933.6840272441815</v>
       </c>
       <c r="R10">
-        <v>6894.99956995012</v>
+        <v>5602.104163465088</v>
       </c>
       <c r="S10">
-        <v>0.07709519914950655</v>
+        <v>0.06064782190008448</v>
       </c>
       <c r="T10">
-        <v>0.0528013751798659</v>
+        <v>0.04130767275658197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1888.753784</v>
       </c>
       <c r="I11">
-        <v>0.9940681481678673</v>
+        <v>0.9903389385768765</v>
       </c>
       <c r="J11">
-        <v>0.9948334325265211</v>
+        <v>0.9911367484566449</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N11">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O11">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P11">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q11">
-        <v>2965.461383060734</v>
+        <v>2488.974972894477</v>
       </c>
       <c r="R11">
-        <v>26689.15244754661</v>
+        <v>22400.77475605029</v>
       </c>
       <c r="S11">
-        <v>0.1989466426309515</v>
+        <v>0.1616723714503412</v>
       </c>
       <c r="T11">
-        <v>0.204383472010244</v>
+        <v>0.1651743427320501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3058923333333333</v>
+        <v>0.497377</v>
       </c>
       <c r="H12">
-        <v>0.917677</v>
+        <v>1.492131</v>
       </c>
       <c r="I12">
-        <v>0.0004829816801607233</v>
+        <v>0.000782375894240778</v>
       </c>
       <c r="J12">
-        <v>0.0004833535040905259</v>
+        <v>0.0007830061705974918</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N12">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O12">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P12">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q12">
-        <v>0.8188495088748887</v>
+        <v>1.429851773152667</v>
       </c>
       <c r="R12">
-        <v>7.369645579873999</v>
+        <v>12.868665958374</v>
       </c>
       <c r="S12">
-        <v>5.49349121661876E-05</v>
+        <v>9.28765975976198E-05</v>
       </c>
       <c r="T12">
-        <v>5.643617773400128E-05</v>
+        <v>9.488838956066159E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3058923333333333</v>
+        <v>0.497377</v>
       </c>
       <c r="H13">
-        <v>0.917677</v>
+        <v>1.492131</v>
       </c>
       <c r="I13">
-        <v>0.0004829816801607233</v>
+        <v>0.000782375894240778</v>
       </c>
       <c r="J13">
-        <v>0.0004833535040905259</v>
+        <v>0.0007830061705974918</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.27421</v>
       </c>
       <c r="O13">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P13">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q13">
-        <v>3.290811134463333</v>
+        <v>5.350816582389999</v>
       </c>
       <c r="R13">
-        <v>29.61730021017</v>
+        <v>48.15734924151</v>
       </c>
       <c r="S13">
-        <v>0.0002207736814492938</v>
+        <v>0.000347564445400905</v>
       </c>
       <c r="T13">
-        <v>0.0002268070018491995</v>
+        <v>0.000355093008849428</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3058923333333333</v>
+        <v>0.497377</v>
       </c>
       <c r="H14">
-        <v>0.917677</v>
+        <v>1.492131</v>
       </c>
       <c r="I14">
-        <v>0.0004829816801607233</v>
+        <v>0.000782375894240778</v>
       </c>
       <c r="J14">
-        <v>0.0004833535040905259</v>
+        <v>0.0007830061705974918</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N14">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O14">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P14">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q14">
-        <v>1.090425208829111</v>
+        <v>2.560219259634</v>
       </c>
       <c r="R14">
-        <v>9.813826879462001</v>
+        <v>23.041973336706</v>
       </c>
       <c r="S14">
-        <v>7.315436160318492E-05</v>
+        <v>0.0001663000727791625</v>
       </c>
       <c r="T14">
-        <v>7.515352970739552E-05</v>
+        <v>0.0001699022842998714</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3058923333333333</v>
+        <v>0.497377</v>
       </c>
       <c r="H15">
-        <v>0.917677</v>
+        <v>1.492131</v>
       </c>
       <c r="I15">
-        <v>0.0004829816801607233</v>
+        <v>0.000782375894240778</v>
       </c>
       <c r="J15">
-        <v>0.0004833535040905259</v>
+        <v>0.0007830061705974918</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N15">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O15">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P15">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q15">
-        <v>0.5583383934558332</v>
+        <v>0.7376180490320001</v>
       </c>
       <c r="R15">
-        <v>3.350030360734999</v>
+        <v>4.425708294192001</v>
       </c>
       <c r="S15">
-        <v>3.745776271594843E-05</v>
+        <v>4.791227734720713E-05</v>
       </c>
       <c r="T15">
-        <v>2.565427425289743E-05</v>
+        <v>3.263340070054966E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3058923333333333</v>
+        <v>0.497377</v>
       </c>
       <c r="H16">
-        <v>0.917677</v>
+        <v>1.492131</v>
       </c>
       <c r="I16">
-        <v>0.0004829816801607233</v>
+        <v>0.000782375894240778</v>
       </c>
       <c r="J16">
-        <v>0.0004833535040905259</v>
+        <v>0.0007830061705974918</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N16">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O16">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P16">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q16">
-        <v>1.440810193830444</v>
+        <v>1.966310668304667</v>
       </c>
       <c r="R16">
-        <v>12.967291744474</v>
+        <v>17.696796014742</v>
       </c>
       <c r="S16">
-        <v>9.666096222610858E-05</v>
+        <v>0.0001277225011158835</v>
       </c>
       <c r="T16">
-        <v>9.930252054703211E-05</v>
+        <v>0.0001304890871869812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4616105</v>
+        <v>1.535173</v>
       </c>
       <c r="H17">
-        <v>2.923221</v>
+        <v>3.070346</v>
       </c>
       <c r="I17">
-        <v>0.002307776358230254</v>
+        <v>0.002414832910828803</v>
       </c>
       <c r="J17">
-        <v>0.001539702001446055</v>
+        <v>0.001611185521827056</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N17">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O17">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P17">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q17">
-        <v>3.912615354066999</v>
+        <v>4.413291801080667</v>
       </c>
       <c r="R17">
-        <v>23.47569212440199</v>
+        <v>26.479750806484</v>
       </c>
       <c r="S17">
-        <v>0.0002624892345738562</v>
+        <v>0.000286667145774193</v>
       </c>
       <c r="T17">
-        <v>0.000179775040577202</v>
+        <v>0.0001952510787149513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4616105</v>
+        <v>1.535173</v>
       </c>
       <c r="H18">
-        <v>2.923221</v>
+        <v>3.070346</v>
       </c>
       <c r="I18">
-        <v>0.002307776358230254</v>
+        <v>0.002414832910828803</v>
       </c>
       <c r="J18">
-        <v>0.001539702001446055</v>
+        <v>0.001611185521827056</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.27421</v>
       </c>
       <c r="O18">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P18">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q18">
-        <v>15.724108071735</v>
+        <v>16.51549859611</v>
       </c>
       <c r="R18">
-        <v>94.34464843040999</v>
+        <v>99.09299157665998</v>
       </c>
       <c r="S18">
-        <v>0.001054897739389599</v>
+        <v>0.001072770860613666</v>
       </c>
       <c r="T18">
-        <v>0.0007224840447702394</v>
+        <v>0.0007306720384127168</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4616105</v>
+        <v>1.535173</v>
       </c>
       <c r="H19">
-        <v>2.923221</v>
+        <v>3.070346</v>
       </c>
       <c r="I19">
-        <v>0.002307776358230254</v>
+        <v>0.002414832910828803</v>
       </c>
       <c r="J19">
-        <v>0.001539702001446055</v>
+        <v>0.001611185521827056</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N19">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O19">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P19">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q19">
-        <v>5.210254592921</v>
+        <v>7.902213977465998</v>
       </c>
       <c r="R19">
-        <v>31.261527557526</v>
+        <v>47.41328386479599</v>
       </c>
       <c r="S19">
-        <v>0.0003495451549074846</v>
+        <v>0.0005132914904159325</v>
       </c>
       <c r="T19">
-        <v>0.0002393983681238415</v>
+        <v>0.0003496065687201544</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4616105</v>
+        <v>1.535173</v>
       </c>
       <c r="H20">
-        <v>2.923221</v>
+        <v>3.070346</v>
       </c>
       <c r="I20">
-        <v>0.002307776358230254</v>
+        <v>0.002414832910828803</v>
       </c>
       <c r="J20">
-        <v>0.001539702001446055</v>
+        <v>0.001611185521827056</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N20">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O20">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P20">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q20">
-        <v>2.66784475941375</v>
+        <v>2.276686121768</v>
       </c>
       <c r="R20">
-        <v>10.671379037655</v>
+        <v>9.106744487072</v>
       </c>
       <c r="S20">
-        <v>0.0001789801617305612</v>
+        <v>0.0001478830636558265</v>
       </c>
       <c r="T20">
-        <v>8.172059802722427E-05</v>
+        <v>6.714948708077898E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4616105</v>
+        <v>1.535173</v>
       </c>
       <c r="H21">
-        <v>2.923221</v>
+        <v>3.070346</v>
       </c>
       <c r="I21">
-        <v>0.002307776358230254</v>
+        <v>0.002414832910828803</v>
       </c>
       <c r="J21">
-        <v>0.001539702001446055</v>
+        <v>0.001611185521827056</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N21">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O21">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P21">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q21">
-        <v>6.884459263366999</v>
+        <v>6.069092554728666</v>
       </c>
       <c r="R21">
-        <v>41.30675558020199</v>
+        <v>36.414555328372</v>
       </c>
       <c r="S21">
-        <v>0.0004618640676287528</v>
+        <v>0.000394220350369185</v>
       </c>
       <c r="T21">
-        <v>0.0003163239499475477</v>
+        <v>0.000268506348898454</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.106424333333333</v>
+        <v>1.003246</v>
       </c>
       <c r="H22">
-        <v>3.319273</v>
+        <v>3.009738</v>
       </c>
       <c r="I22">
-        <v>0.001746963311112869</v>
+        <v>0.00157810973646446</v>
       </c>
       <c r="J22">
-        <v>0.001748308212566156</v>
+        <v>0.001579381050244083</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N22">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O22">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P22">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q22">
-        <v>2.961810164002889</v>
+        <v>2.884116217694667</v>
       </c>
       <c r="R22">
-        <v>26.656291476026</v>
+        <v>25.957045959252</v>
       </c>
       <c r="S22">
-        <v>0.0001987016899307687</v>
+        <v>0.0001873389300941171</v>
       </c>
       <c r="T22">
-        <v>0.00020413182522355</v>
+        <v>0.0001913968624869576</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.106424333333333</v>
+        <v>1.003246</v>
       </c>
       <c r="H23">
-        <v>3.319273</v>
+        <v>3.009738</v>
       </c>
       <c r="I23">
-        <v>0.001746963311112869</v>
+        <v>0.00157810973646446</v>
       </c>
       <c r="J23">
-        <v>0.001748308212566156</v>
+        <v>0.001579381050244083</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>32.27421</v>
       </c>
       <c r="O23">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P23">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q23">
-        <v>11.90299042770333</v>
+        <v>10.79299069522</v>
       </c>
       <c r="R23">
-        <v>107.12691384933</v>
+        <v>97.13691625697999</v>
       </c>
       <c r="S23">
-        <v>0.0007985468960704494</v>
+        <v>0.000701063055972987</v>
       </c>
       <c r="T23">
-        <v>0.000820369647979625</v>
+        <v>0.0007162487223095422</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.106424333333333</v>
+        <v>1.003246</v>
       </c>
       <c r="H24">
-        <v>3.319273</v>
+        <v>3.009738</v>
       </c>
       <c r="I24">
-        <v>0.001746963311112869</v>
+        <v>0.00157810973646446</v>
       </c>
       <c r="J24">
-        <v>0.001748308212566156</v>
+        <v>0.001579381050244083</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N24">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O24">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P24">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q24">
-        <v>3.944109914693112</v>
+        <v>5.164150596731999</v>
       </c>
       <c r="R24">
-        <v>35.49698923223801</v>
+        <v>46.47735537058799</v>
       </c>
       <c r="S24">
-        <v>0.0002646021392076824</v>
+        <v>0.0003354394811489146</v>
       </c>
       <c r="T24">
-        <v>0.0002718332071223926</v>
+        <v>0.000342705406793456</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.106424333333333</v>
+        <v>1.003246</v>
       </c>
       <c r="H25">
-        <v>3.319273</v>
+        <v>3.009738</v>
       </c>
       <c r="I25">
-        <v>0.001746963311112869</v>
+        <v>0.00157810973646446</v>
       </c>
       <c r="J25">
-        <v>0.001748308212566156</v>
+        <v>0.001579381050244083</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N25">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O25">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P25">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q25">
-        <v>2.019531441085833</v>
+        <v>1.487829869936</v>
       </c>
       <c r="R25">
-        <v>12.117188646515</v>
+        <v>8.926979219616001</v>
       </c>
       <c r="S25">
-        <v>0.0001354861682525053</v>
+        <v>9.664258821673735E-05</v>
       </c>
       <c r="T25">
-        <v>9.27924965562367E-05</v>
+        <v>6.582396998498854E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.106424333333333</v>
+        <v>1.003246</v>
       </c>
       <c r="H26">
-        <v>3.319273</v>
+        <v>3.009738</v>
       </c>
       <c r="I26">
-        <v>0.001746963311112869</v>
+        <v>0.00157810973646446</v>
       </c>
       <c r="J26">
-        <v>0.001748308212566156</v>
+        <v>0.001579381050244083</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N26">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O26">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P26">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q26">
-        <v>5.211465880158444</v>
+        <v>3.966193275390667</v>
       </c>
       <c r="R26">
-        <v>46.903192921426</v>
+        <v>35.695739478516</v>
       </c>
       <c r="S26">
-        <v>0.0003496264176514636</v>
+        <v>0.0002576256810317036</v>
       </c>
       <c r="T26">
-        <v>0.0003591810356843519</v>
+        <v>0.0002632060886691386</v>
       </c>
     </row>
   </sheetData>
